--- a/data/trans_dic/P1434-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1434-Habitat-trans_dic.xlsx
@@ -601,7 +601,7 @@
         <v>0.03755341987054122</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.06969849336104299</v>
+        <v>0.06969849336104302</v>
       </c>
     </row>
     <row r="5">
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01590335283093292</v>
+        <v>0.01504307763194337</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02015564400969698</v>
+        <v>0.01888725591710051</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02474259743540606</v>
+        <v>0.0264775545086746</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05499136284291171</v>
+        <v>0.05534476070465907</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03986202637143197</v>
+        <v>0.03889790821977176</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05132278227524356</v>
+        <v>0.04955890039798776</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05260889797200163</v>
+        <v>0.05413097733921635</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08695352198045224</v>
+        <v>0.08677358296321801</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>0.02428135056432567</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04882407403334357</v>
+        <v>0.04882407403334356</v>
       </c>
     </row>
     <row r="8">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02490606622061325</v>
+        <v>0.02423058220867036</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0227586784093704</v>
+        <v>0.02192250191092466</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01632370582973498</v>
+        <v>0.01615083225421188</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03743848721053143</v>
+        <v>0.0388539372801832</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04848980430724158</v>
+        <v>0.04848894699225338</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04501703181477649</v>
+        <v>0.04427362178343156</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03420612609042303</v>
+        <v>0.03526660835023609</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06136545165937782</v>
+        <v>0.06214602364620198</v>
       </c>
     </row>
     <row r="10">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02270375706398992</v>
+        <v>0.02183685086297907</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02305158605303085</v>
+        <v>0.02353421031686274</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0195718966432197</v>
+        <v>0.01997725669828568</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02710567220918694</v>
+        <v>0.02730134015273195</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05038609118091417</v>
+        <v>0.0500651546623427</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05353713468206612</v>
+        <v>0.05527194578453136</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04537486616744327</v>
+        <v>0.04521878335153416</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05280271937790558</v>
+        <v>0.05280831187301471</v>
       </c>
     </row>
     <row r="13">
@@ -793,7 +793,7 @@
         <v>0.0377541997402167</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06480043806991455</v>
+        <v>0.06480043806991452</v>
       </c>
     </row>
     <row r="14">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02468538498635765</v>
+        <v>0.02395194077049674</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03229927702628221</v>
+        <v>0.03152920136332204</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02633612900634541</v>
+        <v>0.02732479088727291</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05298947518201488</v>
+        <v>0.05240918185683587</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04620794983614682</v>
+        <v>0.04490727763550181</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0617099227571302</v>
+        <v>0.06065146276083511</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05121060483002727</v>
+        <v>0.05191651952938964</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07839221702103565</v>
+        <v>0.07945045344659747</v>
       </c>
     </row>
     <row r="16">
@@ -868,16 +868,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02680995041772366</v>
+        <v>0.02696188368531471</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02994319383103293</v>
+        <v>0.03015574836783993</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02692065483006062</v>
+        <v>0.02657793845890024</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04865183142197058</v>
+        <v>0.04859966704110641</v>
       </c>
     </row>
     <row r="18">
@@ -888,16 +888,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03872607797091985</v>
+        <v>0.03889034669298826</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04331399572559431</v>
+        <v>0.04433911553896724</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03850902931254336</v>
+        <v>0.03828818205783788</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06189953766040319</v>
+        <v>0.06152756183689279</v>
       </c>
     </row>
     <row r="19">
@@ -1046,16 +1046,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11037</v>
+        <v>10440</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14179</v>
+        <v>13287</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16696</v>
+        <v>17867</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>37907</v>
+        <v>38151</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>27665</v>
+        <v>26996</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>36104</v>
+        <v>34863</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>35500</v>
+        <v>36528</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>59940</v>
+        <v>59816</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23955</v>
+        <v>23305</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>23117</v>
+        <v>22268</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16690</v>
+        <v>16513</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>39096</v>
+        <v>40574</v>
       </c>
     </row>
     <row r="11">
@@ -1153,13 +1153,13 @@
         <v>46637</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45726</v>
+        <v>44971</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>34973</v>
+        <v>36058</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>64082</v>
+        <v>64897</v>
       </c>
     </row>
     <row r="12">
@@ -1214,16 +1214,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15405</v>
+        <v>14816</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17464</v>
+        <v>17830</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14866</v>
+        <v>15174</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>21579</v>
+        <v>21735</v>
       </c>
     </row>
     <row r="15">
@@ -1234,16 +1234,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>34187</v>
+        <v>33970</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>40561</v>
+        <v>41875</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>34465</v>
+        <v>34346</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>42037</v>
+        <v>42041</v>
       </c>
     </row>
     <row r="16">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>23259</v>
+        <v>22568</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>30611</v>
+        <v>29881</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>24692</v>
+        <v>25619</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>52065</v>
+        <v>51495</v>
       </c>
     </row>
     <row r="19">
@@ -1318,16 +1318,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>43538</v>
+        <v>42313</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>58485</v>
+        <v>57482</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>48013</v>
+        <v>48675</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>77025</v>
+        <v>78065</v>
       </c>
     </row>
     <row r="20">
@@ -1382,16 +1382,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>87844</v>
+        <v>88342</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>102543</v>
+        <v>103271</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>91378</v>
+        <v>90215</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>170878</v>
+        <v>170695</v>
       </c>
     </row>
     <row r="23">
@@ -1402,16 +1402,16 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>126888</v>
+        <v>127426</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>148333</v>
+        <v>151843</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>130713</v>
+        <v>129963</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>217407</v>
+        <v>216101</v>
       </c>
     </row>
     <row r="24">
